--- a/pitalium-sample/src/main/resources/com/htmlhifive/pitalium/sample/db/init_data.xlsx
+++ b/pitalium-sample/src/main/resources/com/htmlhifive/pitalium/sample/db/init_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="27540" windowHeight="14835"/>
+    <workbookView xWindow="2520" yWindow="0" windowWidth="14805" windowHeight="8775"/>
   </bookViews>
   <sheets>
-    <sheet name="USER" sheetId="3" r:id="rId1"/>
-    <sheet name="ITEM" sheetId="2" r:id="rId2"/>
+    <sheet name="DB_USER" sheetId="3" r:id="rId1"/>
+    <sheet name="DB_ITEM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
